--- a/data/coefficient/103.xlsx
+++ b/data/coefficient/103.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>start_time</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>congestion_coefficient</t>
+  </si>
+  <si>
+    <t>location</t>
   </si>
 </sst>
 </file>
@@ -1239,10 +1242,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R31"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1251,7 +1254,7 @@
     <col min="14" max="18" width="14.1111111111111" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1306,8 +1309,11 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="2">
         <v>45413.5388888889</v>
       </c>
@@ -1368,8 +1374,11 @@
         <f>(0.33*N2+0.33*P2+0.33*O2)/L2</f>
         <v>0.454255760416377</v>
       </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="2">
         <v>45413.5423611111</v>
       </c>
@@ -1430,8 +1439,11 @@
         <f t="shared" ref="R3:R31" si="3">(0.33*N3+0.33*P3+0.33*O3)/L3</f>
         <v>0.407189404054458</v>
       </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="2">
         <v>45413.5458333333</v>
       </c>
@@ -1492,8 +1504,11 @@
         <f t="shared" si="3"/>
         <v>0.356057348148193</v>
       </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="2">
         <v>45413.5493055556</v>
       </c>
@@ -1554,8 +1569,11 @@
         <f t="shared" si="3"/>
         <v>0.339300327626528</v>
       </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="2">
         <v>45413.5527777778</v>
       </c>
@@ -1616,8 +1634,11 @@
         <f t="shared" si="3"/>
         <v>0.369682999175172</v>
       </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="2">
         <v>45413.55625</v>
       </c>
@@ -1678,8 +1699,11 @@
         <f t="shared" si="3"/>
         <v>0.369323954110967</v>
       </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="2">
         <v>45413.5597222222</v>
       </c>
@@ -1740,8 +1764,11 @@
         <f t="shared" si="3"/>
         <v>0.361205559017992</v>
       </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="2">
         <v>45413.5631944444</v>
       </c>
@@ -1802,8 +1829,11 @@
         <f t="shared" si="3"/>
         <v>0.315838294174769</v>
       </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="2">
         <v>45413.5666666667</v>
       </c>
@@ -1864,8 +1894,11 @@
         <f t="shared" si="3"/>
         <v>0.359829294658641</v>
       </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="2">
         <v>45413.5701388889</v>
       </c>
@@ -1926,8 +1959,11 @@
         <f t="shared" si="3"/>
         <v>0.392589741318403</v>
       </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="2">
         <v>45413.5736111111</v>
       </c>
@@ -1988,8 +2024,11 @@
         <f t="shared" si="3"/>
         <v>0.274018052426696</v>
       </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" s="2">
         <v>45413.5770833333</v>
       </c>
@@ -2050,8 +2089,11 @@
         <f t="shared" si="3"/>
         <v>0.387941761943463</v>
       </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" s="2">
         <v>45413.5805555556</v>
       </c>
@@ -2112,8 +2154,11 @@
         <f t="shared" si="3"/>
         <v>0.345356152483877</v>
       </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" s="2">
         <v>45413.5840277778</v>
       </c>
@@ -2174,8 +2219,11 @@
         <f t="shared" si="3"/>
         <v>0.316223333360592</v>
       </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="2">
         <v>45413.5875</v>
       </c>
@@ -2236,8 +2284,11 @@
         <f t="shared" si="3"/>
         <v>0.286780376983614</v>
       </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" s="2">
         <v>45413.5909722222</v>
       </c>
@@ -2298,8 +2349,11 @@
         <f t="shared" si="3"/>
         <v>0.236710281214312</v>
       </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" s="2">
         <v>45413.5944444444</v>
       </c>
@@ -2360,8 +2414,11 @@
         <f t="shared" si="3"/>
         <v>0.307769686191258</v>
       </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" s="2">
         <v>45413.5979166667</v>
       </c>
@@ -2422,8 +2479,11 @@
         <f t="shared" si="3"/>
         <v>0.033342377967067</v>
       </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" s="2">
         <v>45413.6013888889</v>
       </c>
@@ -2484,8 +2544,11 @@
         <f t="shared" si="3"/>
         <v>0.10761832661605</v>
       </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" s="2">
         <v>45413.6048611111</v>
       </c>
@@ -2546,8 +2609,11 @@
         <f t="shared" si="3"/>
         <v>0.0397972307702525</v>
       </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:19">
       <c r="A22" s="2">
         <v>45413.6083333333</v>
       </c>
@@ -2608,8 +2674,11 @@
         <f t="shared" si="3"/>
         <v>0.0300001943783391</v>
       </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:19">
       <c r="A23" s="2">
         <v>45413.6118055556</v>
       </c>
@@ -2670,8 +2739,11 @@
         <f t="shared" si="3"/>
         <v>0.119271495107701</v>
       </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:19">
       <c r="A24" s="2">
         <v>45413.6152777778</v>
       </c>
@@ -2732,8 +2804,11 @@
         <f t="shared" si="3"/>
         <v>0.0392692344302403</v>
       </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:19">
       <c r="A25" s="2">
         <v>45413.61875</v>
       </c>
@@ -2794,8 +2869,11 @@
         <f t="shared" si="3"/>
         <v>0.0821925780242974</v>
       </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:19">
       <c r="A26" s="2">
         <v>45413.6222222222</v>
       </c>
@@ -2856,8 +2934,11 @@
         <f t="shared" si="3"/>
         <v>0.0432499671436283</v>
       </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:19">
       <c r="A27" s="2">
         <v>45413.6256944444</v>
       </c>
@@ -2918,8 +2999,11 @@
         <f t="shared" si="3"/>
         <v>0.159560200460238</v>
       </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:19">
       <c r="A28" s="2">
         <v>45413.6291666667</v>
       </c>
@@ -2980,8 +3064,11 @@
         <f t="shared" si="3"/>
         <v>0.0750751267170791</v>
       </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:19">
       <c r="A29" s="2">
         <v>45413.6326388889</v>
       </c>
@@ -3042,8 +3129,11 @@
         <f t="shared" si="3"/>
         <v>0.035089590258333</v>
       </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:19">
       <c r="A30" s="2">
         <v>45413.6361111111</v>
       </c>
@@ -3104,8 +3194,11 @@
         <f t="shared" si="3"/>
         <v>0.0905505537028464</v>
       </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:19">
       <c r="A31" s="2">
         <v>45413.6395833333</v>
       </c>
@@ -3165,6 +3258,9 @@
       <c r="R31" s="1">
         <f t="shared" si="3"/>
         <v>0.0237347516487215</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/coefficient/103.xlsx
+++ b/data/coefficient/103.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>start_time</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>location</t>
+  </si>
+  <si>
+    <t>is_spot</t>
+  </si>
+  <si>
+    <t>is_service_area</t>
   </si>
 </sst>
 </file>
@@ -1242,19 +1248,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A32" sqref="$A32:$XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="38.8888888888889" customWidth="1"/>
     <col min="13" max="13" width="12.8888888888889" style="1"/>
     <col min="14" max="18" width="14.1111111111111" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1312,8 +1319,14 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="2">
         <v>45413.5388888889</v>
       </c>
@@ -1377,8 +1390,14 @@
       <c r="S2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="2">
         <v>45413.5423611111</v>
       </c>
@@ -1436,14 +1455,20 @@
         <v>0.453206974615848</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R31" si="3">(0.33*N3+0.33*P3+0.33*O3)/L3</f>
-        <v>0.407189404054458</v>
+        <f>(0.33*N3+0.33*P3+0.33*O3)/L3</f>
+        <v>0.407189404054459</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="2">
         <v>45413.5458333333</v>
       </c>
@@ -1485,15 +1510,15 @@
         <v>5.56012313191465</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:P4" si="4">(I4-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N4:P4" si="3">(I4-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.518392092937131</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.961606124072473</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.677925105100659</v>
       </c>
       <c r="Q4" s="1">
@@ -1501,14 +1526,20 @@
         <v>0.057907756305143</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" si="3"/>
+        <f>(0.33*N4+0.33*P4+0.33*O4)/L4</f>
         <v>0.356057348148193</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="2">
         <v>45413.5493055556</v>
       </c>
@@ -1550,15 +1581,15 @@
         <v>17.3881510644703</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" ref="N5:P5" si="5">(I5-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N5:P5" si="4">(I5-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.206557580490592</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.88251944260054</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.967288598887826</v>
       </c>
       <c r="Q5" s="1">
@@ -1566,14 +1597,20 @@
         <v>1</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" si="3"/>
+        <f>(0.33*N5+0.33*P5+0.33*O5)/L5</f>
         <v>0.339300327626528</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="2">
         <v>45413.5527777778</v>
       </c>
@@ -1615,15 +1652,15 @@
         <v>10.5990407126512</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" ref="N6:P6" si="6">(I6-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N6:P6" si="5">(I6-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.30878080706004</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.938225662245442</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.993496555998588</v>
       </c>
       <c r="Q6" s="1">
@@ -1631,14 +1668,20 @@
         <v>0.459253204295126</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="3"/>
+        <f>(0.33*N6+0.33*P6+0.33*O6)/L6</f>
         <v>0.369682999175172</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="2">
         <v>45413.55625</v>
       </c>
@@ -1680,15 +1723,15 @@
         <v>12.8130247018085</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" ref="N7:P7" si="7">(I7-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N7:P7" si="6">(I7-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.287424214849651</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.950902779762269</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q7" s="1">
@@ -1696,14 +1739,20 @@
         <v>0.635595123315181</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="3"/>
+        <f>(0.33*N7+0.33*P7+0.33*O7)/L7</f>
         <v>0.369323954110967</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="2">
         <v>45413.5597222222</v>
       </c>
@@ -1745,15 +1794,15 @@
         <v>4.83308757496901</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" ref="N8:P8" si="8">(I8-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N8:P8" si="7">(I8-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.402021329970221</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.901097388035553</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.886005882103268</v>
       </c>
       <c r="Q8" s="1">
@@ -1761,14 +1810,20 @@
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="3"/>
+        <f>(0.33*N8+0.33*P8+0.33*O8)/L8</f>
         <v>0.361205559017992</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="2">
         <v>45413.5631944444</v>
       </c>
@@ -1810,15 +1865,15 @@
         <v>8.95862328522028</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" ref="N9:P9" si="9">(I9-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N9:P9" si="8">(I9-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.475567400840584</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.929976300219515</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.508627778786983</v>
       </c>
       <c r="Q9" s="1">
@@ -1826,14 +1881,20 @@
         <v>0.328595368211487</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="3"/>
-        <v>0.315838294174769</v>
+        <f>(0.33*N9+0.33*P9+0.33*O9)/L9</f>
+        <v>0.315838294174768</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="2">
         <v>45413.5666666667</v>
       </c>
@@ -1875,15 +1936,15 @@
         <v>5.55099948207619</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" ref="N10:P10" si="10">(I10-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N10:P10" si="9">(I10-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.815247998900922</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.765491478481914</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.600044126608925</v>
       </c>
       <c r="Q10" s="1">
@@ -1891,14 +1952,20 @@
         <v>0.0571810654488129</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.359829294658641</v>
+        <f>(0.33*N10+0.33*P10+0.33*O10)/L10</f>
+        <v>0.35982929465864</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="2">
         <v>45413.5701388889</v>
       </c>
@@ -1940,15 +2007,15 @@
         <v>7.12805151181056</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" ref="N11:P11" si="11">(I11-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N11:P11" si="10">(I11-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.967504973379843</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.808920849086851</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.602905943099384</v>
       </c>
       <c r="Q11" s="1">
@@ -1956,14 +2023,20 @@
         <v>0.182791902148534</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="3"/>
+        <f>(0.33*N11+0.33*P11+0.33*O11)/L11</f>
         <v>0.392589741318403</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="2">
         <v>45413.5736111111</v>
       </c>
@@ -2005,15 +2078,15 @@
         <v>7.99615945328426</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" ref="N12:P12" si="12">(I12-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N12:P12" si="11">(I12-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.409723976089329</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.624215939135012</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.626775554028361</v>
       </c>
       <c r="Q12" s="1">
@@ -2021,14 +2094,20 @@
         <v>0.251935952451396</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="3"/>
+        <f>(0.33*N12+0.33*P12+0.33*O12)/L12</f>
         <v>0.274018052426696</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="2">
         <v>45413.5770833333</v>
       </c>
@@ -2070,15 +2149,15 @@
         <v>4.91677115651718</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" ref="N13:P13" si="13">(I13-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N13:P13" si="12">(I13-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.784122236071038</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.893029991733486</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.674009965792223</v>
       </c>
       <c r="Q13" s="1">
@@ -2086,14 +2165,20 @@
         <v>0.00666532523854992</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="3"/>
+        <f>(0.33*N13+0.33*P13+0.33*O13)/L13</f>
         <v>0.387941761943463</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="2">
         <v>45413.5805555556</v>
       </c>
@@ -2135,15 +2220,15 @@
         <v>7.10881258781608</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" ref="N14:P14" si="14">(I14-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N14:P14" si="13">(I14-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.649247872354354</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.797587961646016</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.646231756811007</v>
       </c>
       <c r="Q14" s="1">
@@ -2151,14 +2236,20 @@
         <v>0.181259538412535</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="3"/>
+        <f>(0.33*N14+0.33*P14+0.33*O14)/L14</f>
         <v>0.345356152483877</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="2">
         <v>45413.5840277778</v>
       </c>
@@ -2200,15 +2291,15 @@
         <v>8.82315007173178</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" ref="N15:P15" si="15">(I15-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N15:P15" si="14">(I15-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.612934974813124</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.794278305779291</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.509291770077842</v>
       </c>
       <c r="Q15" s="1">
@@ -2216,14 +2307,20 @@
         <v>0.317805043367508</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="3"/>
+        <f>(0.33*N15+0.33*P15+0.33*O15)/L15</f>
         <v>0.316223333360592</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="2">
         <v>45413.5875</v>
       </c>
@@ -2265,15 +2362,15 @@
         <v>5.79940698948516</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" ref="N16:P16" si="16">(I16-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N16:P16" si="15">(I16-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.572288314892734</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.744399115955045</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.421375459962</v>
       </c>
       <c r="Q16" s="1">
@@ -2281,14 +2378,20 @@
         <v>0.0769665095938543</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" si="3"/>
+        <f>(0.33*N16+0.33*P16+0.33*O16)/L16</f>
         <v>0.286780376983614</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="2">
         <v>45413.5909722222</v>
       </c>
@@ -2330,15 +2433,15 @@
         <v>7.732060395918</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" ref="N17:P17" si="17">(I17-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N17:P17" si="16">(I17-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.446103778181271</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0.632695372656664</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0.355808614097292</v>
       </c>
       <c r="Q17" s="1">
@@ -2346,14 +2449,20 @@
         <v>0.230900689858968</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="3"/>
-        <v>0.236710281214312</v>
+        <f>(0.33*N17+0.33*P17+0.33*O17)/L17</f>
+        <v>0.236710281214313</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="2">
         <v>45413.5944444444</v>
       </c>
@@ -2395,15 +2504,15 @@
         <v>8.19881488042296</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" ref="N18:P18" si="18">(I18-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N18:P18" si="17">(I18-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.87671305787421</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0.679225190560761</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0.309332576966591</v>
       </c>
       <c r="Q18" s="1">
@@ -2411,14 +2520,20 @@
         <v>0.268077282784624</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" si="3"/>
+        <f>(0.33*N18+0.33*P18+0.33*O18)/L18</f>
         <v>0.307769686191258</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="2">
         <v>45413.5979166667</v>
       </c>
@@ -2460,15 +2575,15 @@
         <v>6.19536376119809</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" ref="N19:P19" si="19">(I19-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N19:P19" si="18">(I19-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.202075017982224</v>
       </c>
       <c r="Q19" s="1">
@@ -2476,14 +2591,20 @@
         <v>0.108504125635703</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="3"/>
+        <f>(0.33*N19+0.33*P19+0.33*O19)/L19</f>
         <v>0.033342377967067</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="2">
         <v>45413.6013888889</v>
       </c>
@@ -2525,15 +2646,15 @@
         <v>11.1267366654013</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" ref="N20:P20" si="20">(I20-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N20:P20" si="19">(I20-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.398741652754136</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.170657497339236</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.0828331324281414</v>
       </c>
       <c r="Q20" s="1">
@@ -2541,14 +2662,20 @@
         <v>0.501283732710324</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="3"/>
+        <f>(0.33*N20+0.33*P20+0.33*O20)/L20</f>
         <v>0.10761832661605</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="2">
         <v>45413.6048611111</v>
       </c>
@@ -2590,15 +2717,15 @@
         <v>9.171879040056</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" ref="N21:P21" si="21">(I21-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N21:P21" si="20">(I21-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.151381301268578</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.0685137738012581</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.021300262931694</v>
       </c>
       <c r="Q21" s="1">
@@ -2606,14 +2733,20 @@
         <v>0.34558100552141</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="3"/>
+        <f>(0.33*N21+0.33*P21+0.33*O21)/L21</f>
         <v>0.0397972307702525</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="2">
         <v>45413.6083333333</v>
       </c>
@@ -2655,15 +2788,15 @@
         <v>8.69494531710429</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" ref="N22:P22" si="22">(I22-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N22:P22" si="21">(I22-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.0897601317682118</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.0920592281005102</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q22" s="1">
@@ -2671,14 +2804,20 @@
         <v>0.307593645015385</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="3"/>
+        <f>(0.33*N22+0.33*P22+0.33*O22)/L22</f>
         <v>0.0300001943783391</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="2">
         <v>45413.6118055556</v>
       </c>
@@ -2720,15 +2859,15 @@
         <v>7.40873605016752</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" ref="N23:P23" si="23">(I23-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N23:P23" si="22">(I23-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.428609659743264</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.280148159647792</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.0140997267162244</v>
       </c>
       <c r="Q23" s="1">
@@ -2736,14 +2875,20 @@
         <v>0.205148184025697</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="3"/>
+        <f>(0.33*N23+0.33*P23+0.33*O23)/L23</f>
         <v>0.119271495107701</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="2">
         <v>45413.6152777778</v>
       </c>
@@ -2785,15 +2930,15 @@
         <v>9.83587254148067</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" ref="N24:P24" si="24">(I24-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N24:P24" si="23">(I24-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.142780680239724</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.0901813364777102</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.00503334346584009</v>
       </c>
       <c r="Q24" s="1">
@@ -2801,14 +2946,20 @@
         <v>0.3984675163686</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="3"/>
+        <f>(0.33*N24+0.33*P24+0.33*O24)/L24</f>
         <v>0.0392692344302403</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="2">
         <v>45413.61875</v>
       </c>
@@ -2850,15 +3001,15 @@
         <v>7.10018046080039</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" ref="N25:P25" si="25">(I25-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N25:P25" si="24">(I25-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.306848091934825</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.182616740715544</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.00867200386052415</v>
       </c>
       <c r="Q25" s="1">
@@ -2866,14 +3017,20 @@
         <v>0.180571996925954</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="3"/>
-        <v>0.0821925780242974</v>
+        <f>(0.33*N25+0.33*P25+0.33*O25)/L25</f>
+        <v>0.0821925780242973</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="2">
         <v>45413.6222222222</v>
       </c>
@@ -2915,15 +3072,15 @@
         <v>8.23015904717366</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" ref="N26:P26" si="26">(I26-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N26:P26" si="25">(I26-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.182236489143819</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0.0621249064303154</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0.0177596174175525</v>
       </c>
       <c r="Q26" s="1">
@@ -2931,14 +3088,20 @@
         <v>0.270573818686407</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="3"/>
-        <v>0.0432499671436283</v>
+        <f>(0.33*N26+0.33*P26+0.33*O26)/L26</f>
+        <v>0.0432499671436284</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="2">
         <v>45413.6256944444</v>
       </c>
@@ -2980,15 +3143,15 @@
         <v>7.85962997913077</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" ref="N27:P27" si="27">(I27-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N27:P27" si="26">(I27-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.588906760120398</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.356689333810194</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.0214354240102425</v>
       </c>
       <c r="Q27" s="1">
@@ -2996,14 +3159,20 @@
         <v>0.241061497354641</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="3"/>
+        <f>(0.33*N27+0.33*P27+0.33*O27)/L27</f>
         <v>0.159560200460238</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="2">
         <v>45413.6291666667</v>
       </c>
@@ -3045,15 +3214,15 @@
         <v>8.97611800965055</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" ref="N28:P28" si="28">(I28-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N28:P28" si="27">(I28-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.253964309042784</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.143429964567304</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.0576064943722096</v>
       </c>
       <c r="Q28" s="1">
@@ -3061,14 +3230,20 @@
         <v>0.32998880795354</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="3"/>
-        <v>0.0750751267170791</v>
+        <f>(0.33*N28+0.33*P28+0.33*O28)/L28</f>
+        <v>0.0750751267170792</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="2">
         <v>45413.6326388889</v>
       </c>
@@ -3110,15 +3285,15 @@
         <v>6.23111596971956</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" ref="N29:P29" si="29">(I29-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N29:P29" si="28">(I29-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.167235580961669</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.0173147332935918</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.0281138691285753</v>
       </c>
       <c r="Q29" s="1">
@@ -3126,14 +3301,20 @@
         <v>0.111351758270247</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="3"/>
-        <v>0.035089590258333</v>
+        <f>(0.33*N29+0.33*P29+0.33*O29)/L29</f>
+        <v>0.0350895902583329</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="2">
         <v>45413.6361111111</v>
       </c>
@@ -3175,15 +3356,15 @@
         <v>8.36591491797282</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" ref="N30:P30" si="30">(I30-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N30:P30" si="29">(I30-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.315786192469035</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.229036424269954</v>
       </c>
       <c r="P30" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.00396861782371656</v>
       </c>
       <c r="Q30" s="1">
@@ -3191,14 +3372,20 @@
         <v>0.281386656941879</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="3"/>
+        <f>(0.33*N30+0.33*P30+0.33*O30)/L30</f>
         <v>0.0905505537028464</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="2">
         <v>45413.6395833333</v>
       </c>
@@ -3240,15 +3427,15 @@
         <v>9.97207816916992</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" ref="N31:P31" si="31">(I31-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
+        <f t="shared" ref="N31:P31" si="30">(I31-MIN(I:I))/(MAX(I:I)-MIN(I:I))</f>
         <v>0.0966317078020351</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.0374011049528542</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.00981416693433165</v>
       </c>
       <c r="Q31" s="1">
@@ -3256,12 +3443,918 @@
         <v>0.409316177373234</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="3"/>
+        <f>(0.33*N31+0.33*P31+0.33*O31)/L31</f>
         <v>0.0237347516487215</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="2"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="2"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="2"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="2"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="2"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="2"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="2"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="2"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="2"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="2"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="2"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="2"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="2"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="2"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="2"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="2"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="2"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="2"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="2"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="2"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="2"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="2"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="2"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="2"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="2"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="2"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="2"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="2"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="2"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="2"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="2"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="2"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" s="2"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="2"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" s="2"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" s="2"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" s="2"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="2"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="2"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" s="2"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" s="2"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" s="2"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="2"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="2"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" s="2"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
